--- a/EA_LGA_with_Codes.xlsx
+++ b/EA_LGA_with_Codes.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C203"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3000,6 +3000,253 @@
         <v>1510</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204">
+        <v>9242</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C204">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>9328</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C205">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>9382</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="C206">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>9392</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="C207">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>9408</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="C208">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>9441</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C209">
+        <v>5792</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>9574</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ifako-Ijaiye</t>
+        </is>
+      </c>
+      <c r="C210">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>9622</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="C211">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>9626</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="C212">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>9660</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C213">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>9719</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="C214">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>9721</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>9814</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>9859</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="C217">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>9943</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="C218">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>9968</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Agege</t>
+        </is>
+      </c>
+      <c r="C219">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>9991</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C220">
+        <v>7130</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>10034</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="C221">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>10066</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Kosofe</t>
+        </is>
+      </c>
+      <c r="C222">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
